--- a/Excel Files/All Course Rankings.xlsx
+++ b/Excel Files/All Course Rankings.xlsx
@@ -11309,10 +11309,10 @@
         <v>215</v>
       </c>
       <c r="L21">
-        <v>34.08759365</v>
+        <v>34.0892501</v>
       </c>
       <c r="M21">
-        <v>-84.3516838</v>
+        <v>-84.34283275</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -13942,7 +13942,7 @@
         <v>137</v>
       </c>
       <c r="G26">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="H26" t="s">
         <v>934</v>
@@ -24364,7 +24364,7 @@
         <v>121</v>
       </c>
       <c r="G11">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="H11" t="s">
         <v>1237</v>
@@ -31618,7 +31618,7 @@
         <v>120</v>
       </c>
       <c r="G9">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="H9" t="s">
         <v>1512</v>
@@ -33850,7 +33850,7 @@
         <v>214</v>
       </c>
       <c r="G17">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="H17" t="s">
         <v>1572</v>
@@ -35794,7 +35794,7 @@
         <v>116</v>
       </c>
       <c r="G5">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="H5" t="s">
         <v>602</v>
